--- a/data/trans_orig/P1403-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4364</v>
+        <v>4479</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00157950393745714</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008833471839739178</v>
+        <v>0.009065746130859328</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>2641</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7559</v>
+        <v>7813</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005649806757002193</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001671671031454826</v>
+        <v>0.001676936292691626</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01617037784956637</v>
+        <v>0.01671347542884105</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         <v>791</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8249</v>
+        <v>8383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003558409156340445</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.000822876500223038</v>
+        <v>0.000822210986799488</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008578689820629325</v>
+        <v>0.008717890769981956</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>493284</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>489700</v>
+        <v>489585</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>494064</v>
@@ -824,7 +824,7 @@
         <v>0.9984204960625429</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9911665281602614</v>
+        <v>0.9909342538691412</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,19 +836,19 @@
         <v>464848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>459930</v>
+        <v>459676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>466708</v>
+        <v>466705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9943501932429978</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.983829622150433</v>
+        <v>0.9832865245711586</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9983283289685452</v>
+        <v>0.9983230637073084</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>984</v>
@@ -857,7 +857,7 @@
         <v>958131</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>953304</v>
+        <v>953170</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>960762</v>
@@ -866,10 +866,10 @@
         <v>0.9964415908436596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9914213101793725</v>
+        <v>0.9912821092300185</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9991771234997771</v>
+        <v>0.9991777890132005</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7843</v>
+        <v>8082</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002731775785971331</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01066429475907876</v>
+        <v>0.01098892408443252</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -982,19 +982,19 @@
         <v>9140</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3923</v>
+        <v>4201</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17035</v>
+        <v>17495</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01461202022333377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006272290356507959</v>
+        <v>0.006716750522593234</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02723445130258251</v>
+        <v>0.02796919549445914</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>11149</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6047</v>
+        <v>5921</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19761</v>
+        <v>19733</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008191816492900208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004443424541278465</v>
+        <v>0.004350552246958296</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01451987953313348</v>
+        <v>0.01449874942387917</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>733480</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>727646</v>
+        <v>727407</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>735489</v>
@@ -1041,7 +1041,7 @@
         <v>0.9972682242140287</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9893357052409216</v>
+        <v>0.9890110759155677</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>616354</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>608459</v>
+        <v>607999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>621571</v>
+        <v>621293</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9853879797766663</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9727655486974174</v>
+        <v>0.972030804505541</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9937277096434921</v>
+        <v>0.9932832494774068</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1283</v>
@@ -1074,19 +1074,19 @@
         <v>1349833</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1341221</v>
+        <v>1341249</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1354935</v>
+        <v>1355061</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9918081835070998</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9854801204668663</v>
+        <v>0.9855012505761208</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9955565754587214</v>
+        <v>0.9956494477530418</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20129</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12771</v>
+        <v>13269</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28329</v>
+        <v>29444</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03151735447507986</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.019996957412664</v>
+        <v>0.02077578022553668</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04435637150271002</v>
+        <v>0.04610288943311585</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1199,19 +1199,19 @@
         <v>30659</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20655</v>
+        <v>21217</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42510</v>
+        <v>42494</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04444995837595239</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02994569698845839</v>
+        <v>0.03076054681206735</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0616316527208377</v>
+        <v>0.06160782079152984</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -1220,19 +1220,19 @@
         <v>50788</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37838</v>
+        <v>37578</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65088</v>
+        <v>65444</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03823228201678601</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02848364704962309</v>
+        <v>0.02828824079628757</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04899657377408993</v>
+        <v>0.04926482429228211</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>618539</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610339</v>
+        <v>609224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>625897</v>
+        <v>625399</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9684826455249201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9556436284972899</v>
+        <v>0.9538971105668842</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9800030425873361</v>
+        <v>0.9792242197744634</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>629</v>
@@ -1270,19 +1270,19 @@
         <v>659085</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>647234</v>
+        <v>647250</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>669089</v>
+        <v>668527</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9555500416240477</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9383683472791623</v>
+        <v>0.9383921792084695</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9700543030115416</v>
+        <v>0.9692394531879324</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1221</v>
@@ -1291,19 +1291,19 @@
         <v>1277624</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1263324</v>
+        <v>1262968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1290574</v>
+        <v>1290834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.961767717983214</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9510034262259101</v>
+        <v>0.9507351757077178</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9715163529503769</v>
+        <v>0.9717117592037124</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>72288</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58185</v>
+        <v>57747</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89552</v>
+        <v>91182</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.139243226345205</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1120786366804198</v>
+        <v>0.1112341363691527</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1724991590271974</v>
+        <v>0.1756379361518255</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1416,19 +1416,19 @@
         <v>57043</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43647</v>
+        <v>44336</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72562</v>
+        <v>72450</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1106256886172345</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08464569933519175</v>
+        <v>0.0859811955927966</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.140721088935702</v>
+        <v>0.1405036673362361</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1437,19 +1437,19 @@
         <v>129331</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110223</v>
+        <v>109237</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>151231</v>
+        <v>152308</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1249829243555122</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1065177570337925</v>
+        <v>0.1055640366034453</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1461466374568266</v>
+        <v>0.1471879429094858</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>446859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>429595</v>
+        <v>427965</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>460962</v>
+        <v>461400</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.860756773654795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8275008409728019</v>
+        <v>0.8243620638481747</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8879213633195802</v>
+        <v>0.8887658636308474</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>446</v>
@@ -1487,19 +1487,19 @@
         <v>458599</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>443080</v>
+        <v>443192</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>471995</v>
+        <v>471306</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8893743113827656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.859278911064298</v>
+        <v>0.8594963326637639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9153543006648083</v>
+        <v>0.9140188044072034</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>859</v>
@@ -1508,19 +1508,19 @@
         <v>905458</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>883558</v>
+        <v>882481</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>924566</v>
+        <v>925552</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8750170756444878</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8538533625431732</v>
+        <v>0.8528120570905142</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8934822429662075</v>
+        <v>0.8944359633965546</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>119526</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102065</v>
+        <v>102321</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>136957</v>
+        <v>139034</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3090837683862669</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2639315679203774</v>
+        <v>0.2645947195064111</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3541593663511864</v>
+        <v>0.3595291457044978</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>126</v>
@@ -1633,19 +1633,19 @@
         <v>127506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109530</v>
+        <v>109883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147659</v>
+        <v>146008</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3156207848776952</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2711235804111866</v>
+        <v>0.2719970444244962</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3655042005673928</v>
+        <v>0.3614188601910177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>246</v>
@@ -1654,19 +1654,19 @@
         <v>247032</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>220760</v>
+        <v>220650</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>274026</v>
+        <v>274443</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3124236903785587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2791971525402726</v>
+        <v>0.2790576243208567</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3465632363966424</v>
+        <v>0.3470909105036633</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>267184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>249753</v>
+        <v>247676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>284645</v>
+        <v>284389</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6909162316137331</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6458406336488136</v>
+        <v>0.6404708542955023</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7360684320796227</v>
+        <v>0.7354052804935891</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>270</v>
@@ -1704,19 +1704,19 @@
         <v>276480</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>256327</v>
+        <v>257978</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>294456</v>
+        <v>294103</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6843792151223048</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6344957994326074</v>
+        <v>0.6385811398089823</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7288764195888136</v>
+        <v>0.728002955575504</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>542</v>
@@ -1725,19 +1725,19 @@
         <v>543664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>516670</v>
+        <v>516253</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>569936</v>
+        <v>570046</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6875763096214413</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6534367636033573</v>
+        <v>0.6529090894963367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7208028474597273</v>
+        <v>0.7209423756791432</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>113493</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>98032</v>
+        <v>96830</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129647</v>
+        <v>129678</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3879015158400527</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3350559748854774</v>
+        <v>0.3309472719204025</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4431124017255915</v>
+        <v>0.4432163656653642</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>170</v>
@@ -1850,19 +1850,19 @@
         <v>157217</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>140160</v>
+        <v>138664</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>174809</v>
+        <v>173976</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4584470245072422</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4087090530338658</v>
+        <v>0.4043473543567908</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5097444074006264</v>
+        <v>0.5073157766031077</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>290</v>
@@ -1871,19 +1871,19 @@
         <v>270710</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>248216</v>
+        <v>247380</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>296191</v>
+        <v>295645</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4259688742726226</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3905734535049974</v>
+        <v>0.3892577822259268</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.466062829664474</v>
+        <v>0.4652034571843287</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>179090</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162936</v>
+        <v>162905</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194551</v>
+        <v>195753</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6120984841599473</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5568875982744086</v>
+        <v>0.5567836343346356</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6649440251145227</v>
+        <v>0.6690527280795973</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>201</v>
@@ -1921,19 +1921,19 @@
         <v>185717</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>168125</v>
+        <v>168958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>202774</v>
+        <v>204270</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5415529754927578</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4902555925993735</v>
+        <v>0.4926842233968924</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5912909469661343</v>
+        <v>0.5956526456432092</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>384</v>
@@ -1942,19 +1942,19 @@
         <v>364807</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>339326</v>
+        <v>339872</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>387301</v>
+        <v>388137</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5740311257273775</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.533937170335526</v>
+        <v>0.5347965428156716</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6094265464950026</v>
+        <v>0.6107422177740732</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>98995</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85553</v>
+        <v>83344</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>112878</v>
+        <v>113074</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4716661359885714</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4076246722608279</v>
+        <v>0.3970987285774474</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5378144333382417</v>
+        <v>0.5387484463210837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -2067,19 +2067,19 @@
         <v>188593</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>168049</v>
+        <v>168813</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>208244</v>
+        <v>207820</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5648049026466176</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5032790665855932</v>
+        <v>0.5055662840381966</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6236577740539077</v>
+        <v>0.6223878574130658</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>265</v>
@@ -2088,19 +2088,19 @@
         <v>287588</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>264285</v>
+        <v>263203</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>310371</v>
+        <v>311523</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5288568188667307</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.48600436885889</v>
+        <v>0.4840142696633612</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5707542361999887</v>
+        <v>0.5728723824934374</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>110888</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97005</v>
+        <v>96809</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>124330</v>
+        <v>126539</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5283338640114287</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4621855666617584</v>
+        <v>0.4612515536789163</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5923753277391721</v>
+        <v>0.6029012714225528</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>127</v>
@@ -2138,19 +2138,19 @@
         <v>145315</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>125664</v>
+        <v>126088</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>165859</v>
+        <v>165095</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4351950973533824</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.376342225946092</v>
+        <v>0.3776121425869342</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4967209334144067</v>
+        <v>0.4944337159618031</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>245</v>
@@ -2159,19 +2159,19 @@
         <v>256203</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>233420</v>
+        <v>232268</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>279506</v>
+        <v>280588</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4711431811332693</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4292457638000113</v>
+        <v>0.4271276175065628</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5139956311411104</v>
+        <v>0.5159857303366389</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>427220</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>390162</v>
+        <v>392975</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>461222</v>
+        <v>465588</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1303875023548679</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1190774442169663</v>
+        <v>0.1199360001544244</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.140764783986977</v>
+        <v>0.1420972124981716</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>556</v>
@@ -2284,19 +2284,19 @@
         <v>572800</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>531505</v>
+        <v>530859</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>616521</v>
+        <v>613396</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1695076079990115</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1572873601588115</v>
+        <v>0.1570960726635292</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1824461428922814</v>
+        <v>0.1815213150850077</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>993</v>
@@ -2305,19 +2305,19 @@
         <v>1000020</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>938882</v>
+        <v>944598</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1053732</v>
+        <v>1060589</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1502492372171193</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1410635251657069</v>
+        <v>0.14192235129128</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1583193070288458</v>
+        <v>0.1593495410290106</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2849323</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2815321</v>
+        <v>2810955</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2886381</v>
+        <v>2883568</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8696124976451322</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.859235216013023</v>
+        <v>0.8579027875018285</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8809225557830339</v>
+        <v>0.8800639998455756</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2741</v>
@@ -2355,19 +2355,19 @@
         <v>2806397</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2762676</v>
+        <v>2765801</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2847692</v>
+        <v>2848338</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8304923920009885</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8175538571077187</v>
+        <v>0.8184786849149923</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8427126398411884</v>
+        <v>0.8429039273364707</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5518</v>
@@ -2376,19 +2376,19 @@
         <v>5655721</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5602009</v>
+        <v>5595152</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5716859</v>
+        <v>5711143</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8497507627828808</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8416806929711542</v>
+        <v>0.8406504589709894</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8589364748342931</v>
+        <v>0.8580776487087201</v>
       </c>
     </row>
     <row r="27">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4569</v>
+        <v>5414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002113847359070504</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01006099000552669</v>
+        <v>0.01192193631780517</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5570</v>
+        <v>4802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001085506268810407</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006297901576459113</v>
+        <v>0.005429385026032695</v>
       </c>
     </row>
     <row r="5">
@@ -2786,7 +2786,7 @@
         <v>453186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449577</v>
+        <v>448732</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>454146</v>
@@ -2795,7 +2795,7 @@
         <v>0.9978861526409295</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9899390099944732</v>
+        <v>0.9880780636821942</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2820,7 +2820,7 @@
         <v>883416</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>878806</v>
+        <v>879574</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>884376</v>
@@ -2829,7 +2829,7 @@
         <v>0.9989144937311896</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9937020984235408</v>
+        <v>0.9945706149739673</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2924,19 +2924,19 @@
         <v>6840</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2818</v>
+        <v>2872</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12941</v>
+        <v>13971</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009955598213484908</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004102011128376415</v>
+        <v>0.004179890608680186</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01883509675186786</v>
+        <v>0.02033296815505909</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2945,19 +2945,19 @@
         <v>9419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4556</v>
+        <v>4558</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18084</v>
+        <v>17680</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01543412365782037</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007465902824408019</v>
+        <v>0.007469710147543395</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02963305688047634</v>
+        <v>0.02897223209301848</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2966,19 +2966,19 @@
         <v>16259</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8968</v>
+        <v>9386</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25953</v>
+        <v>27307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01253263543899833</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006912450619953422</v>
+        <v>0.007235042866145631</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02000454930212874</v>
+        <v>0.0210484231258947</v>
       </c>
     </row>
     <row r="8">
@@ -2995,19 +2995,19 @@
         <v>680247</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>674146</v>
+        <v>673116</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>684269</v>
+        <v>684215</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9900444017865151</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9811649032481321</v>
+        <v>0.9796670318449407</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958979888716236</v>
+        <v>0.9958201093913198</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -3016,19 +3016,19 @@
         <v>600836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>592171</v>
+        <v>592575</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>605699</v>
+        <v>605697</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9845658763421796</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9703669431195238</v>
+        <v>0.9710277679069814</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.992534097175592</v>
+        <v>0.9925302898524565</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1223</v>
@@ -3037,19 +3037,19 @@
         <v>1281083</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1271389</v>
+        <v>1270035</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1288374</v>
+        <v>1287956</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9874673645610017</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9799954506978712</v>
+        <v>0.9789515768741057</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9930875493800463</v>
+        <v>0.9927649571338547</v>
       </c>
     </row>
     <row r="9">
@@ -3141,19 +3141,19 @@
         <v>33282</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22617</v>
+        <v>22005</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47492</v>
+        <v>46842</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04881072780870799</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03316974333123973</v>
+        <v>0.03227256121023526</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06964986181073828</v>
+        <v>0.06869715366157129</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -3162,19 +3162,19 @@
         <v>25510</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16950</v>
+        <v>16832</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37497</v>
+        <v>36992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03595161978762086</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02388821399810591</v>
+        <v>0.02372098575471173</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05284440277910988</v>
+        <v>0.05213319377372141</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -3183,19 +3183,19 @@
         <v>58793</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44604</v>
+        <v>44234</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75820</v>
+        <v>76270</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04225312400104099</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0320557253022203</v>
+        <v>0.03179035479051642</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05449030999857672</v>
+        <v>0.05481405974892082</v>
       </c>
     </row>
     <row r="11">
@@ -3212,19 +3212,19 @@
         <v>648581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>634371</v>
+        <v>635021</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>659246</v>
+        <v>659858</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.951189272191292</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9303501381892617</v>
+        <v>0.9313028463384286</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9668302566687602</v>
+        <v>0.9677274387897646</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>641</v>
@@ -3233,19 +3233,19 @@
         <v>684064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>672077</v>
+        <v>672582</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>692624</v>
+        <v>692742</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9640483802123792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9471555972208902</v>
+        <v>0.9478668062262784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9761117860018941</v>
+        <v>0.9762790142452883</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1262</v>
@@ -3254,19 +3254,19 @@
         <v>1332644</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1315617</v>
+        <v>1315167</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1346833</v>
+        <v>1347203</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.957746875998959</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9455096900014232</v>
+        <v>0.9451859402510796</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9679442746977791</v>
+        <v>0.9682096452094844</v>
       </c>
     </row>
     <row r="12">
@@ -3358,19 +3358,19 @@
         <v>73517</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58782</v>
+        <v>56944</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>91303</v>
+        <v>89783</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1196151085911151</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09564031344151207</v>
+        <v>0.09264940414514052</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.148552483274298</v>
+        <v>0.1460795155262791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -3379,19 +3379,19 @@
         <v>82192</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67159</v>
+        <v>66137</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102666</v>
+        <v>99926</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1338053758681006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1093324521714038</v>
+        <v>0.1076682921923706</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1671367668301378</v>
+        <v>0.1626755470632378</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -3400,19 +3400,19 @@
         <v>155709</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>135028</v>
+        <v>132531</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>183398</v>
+        <v>179857</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.126708205120325</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1098785570762554</v>
+        <v>0.1078466564673411</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1492397822177951</v>
+        <v>0.1463587469114829</v>
       </c>
     </row>
     <row r="14">
@@ -3429,19 +3429,19 @@
         <v>541100</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>523314</v>
+        <v>524834</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>555835</v>
+        <v>557673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.880384891408885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8514475167257018</v>
+        <v>0.8539204844737218</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.904359686558488</v>
+        <v>0.9073505958548599</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>463</v>
@@ -3450,19 +3450,19 @@
         <v>532072</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>511598</v>
+        <v>514338</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>547105</v>
+        <v>548127</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8661946241318994</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8328632331698621</v>
+        <v>0.8373244529367619</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8906675478285961</v>
+        <v>0.8923317078076294</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>944</v>
@@ -3471,19 +3471,19 @@
         <v>1073171</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1045482</v>
+        <v>1049023</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1093852</v>
+        <v>1096349</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.873291794879675</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8507602177822048</v>
+        <v>0.8536412530885173</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8901214429237446</v>
+        <v>0.892153343532659</v>
       </c>
     </row>
     <row r="15">
@@ -3575,19 +3575,19 @@
         <v>151371</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131295</v>
+        <v>130985</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173946</v>
+        <v>172451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3524947796306085</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.305742789641428</v>
+        <v>0.3050219831724553</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4050635554910158</v>
+        <v>0.4015814897485496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>159</v>
@@ -3596,19 +3596,19 @@
         <v>173672</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>154589</v>
+        <v>152508</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>196557</v>
+        <v>194049</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3878337014001504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3452185935211047</v>
+        <v>0.3405717032180006</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.438938736351124</v>
+        <v>0.4333378521246096</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>296</v>
@@ -3617,19 +3617,19 @@
         <v>325043</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>296560</v>
+        <v>295122</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>356720</v>
+        <v>353724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3705342724915952</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3380650856492524</v>
+        <v>0.3364256724184038</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4066446053266679</v>
+        <v>0.4032284252167411</v>
       </c>
     </row>
     <row r="17">
@@ -3646,19 +3646,19 @@
         <v>278058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>255483</v>
+        <v>256978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>298134</v>
+        <v>298444</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6475052203693915</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5949364445089841</v>
+        <v>0.5984185102514502</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6942572103585718</v>
+        <v>0.6949780168275447</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>247</v>
@@ -3667,19 +3667,19 @@
         <v>274128</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>251243</v>
+        <v>253751</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>293211</v>
+        <v>295292</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6121662985998496</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.561061263648876</v>
+        <v>0.5666621478753906</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6547814064788953</v>
+        <v>0.6594282967819994</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>503</v>
@@ -3688,19 +3688,19 @@
         <v>552186</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>520509</v>
+        <v>523505</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>580669</v>
+        <v>582107</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6294657275084048</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5933553946733321</v>
+        <v>0.5967715747832589</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6619349143507476</v>
+        <v>0.6635743275815962</v>
       </c>
     </row>
     <row r="18">
@@ -3792,19 +3792,19 @@
         <v>160677</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>141592</v>
+        <v>142566</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>178594</v>
+        <v>180148</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5186720562471584</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4570624482040737</v>
+        <v>0.4602071774107257</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5765065013267848</v>
+        <v>0.5815246321031536</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>197</v>
@@ -3813,19 +3813,19 @@
         <v>202782</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>183338</v>
+        <v>185024</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>221441</v>
+        <v>222230</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5728359218744614</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5179086314954638</v>
+        <v>0.5226730874549964</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6255465084849148</v>
+        <v>0.6277754616167065</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>344</v>
@@ -3834,19 +3834,19 @@
         <v>363459</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>335658</v>
+        <v>336856</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>388525</v>
+        <v>390488</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5475577242987766</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5056746375320139</v>
+        <v>0.5074800226430237</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5853203729767946</v>
+        <v>0.5882771143603742</v>
       </c>
     </row>
     <row r="20">
@@ -3863,19 +3863,19 @@
         <v>149109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>131192</v>
+        <v>129638</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>168194</v>
+        <v>167220</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4813279437528416</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4234934986732153</v>
+        <v>0.4184753678968466</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5429375517959263</v>
+        <v>0.5397928225892743</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>147</v>
@@ -3884,19 +3884,19 @@
         <v>151214</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>132555</v>
+        <v>131766</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>170658</v>
+        <v>168972</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4271640781255386</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3744534915150852</v>
+        <v>0.3722245383832935</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4820913685045362</v>
+        <v>0.4773269125450034</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>282</v>
@@ -3905,19 +3905,19 @@
         <v>300323</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>275257</v>
+        <v>273294</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>328124</v>
+        <v>326926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4524422757012234</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4146796270232053</v>
+        <v>0.4117228856396257</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.494325362467986</v>
+        <v>0.4925199773569763</v>
       </c>
     </row>
     <row r="21">
@@ -4009,19 +4009,19 @@
         <v>149930</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>132162</v>
+        <v>135210</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>165084</v>
+        <v>167913</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6000757697624638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.528964932436949</v>
+        <v>0.5411639905680019</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6607295541811506</v>
+        <v>0.6720524510298748</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>227</v>
@@ -4030,19 +4030,19 @@
         <v>251620</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>232007</v>
+        <v>232862</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>269853</v>
+        <v>270474</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6487216707359259</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5981571978536468</v>
+        <v>0.6003610084809853</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6957301588688881</v>
+        <v>0.6973315299419618</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>362</v>
@@ -4051,19 +4051,19 @@
         <v>401549</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>375159</v>
+        <v>377353</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>426369</v>
+        <v>428648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6296628425311258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5882808005938244</v>
+        <v>0.5917207014425074</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6685818780344914</v>
+        <v>0.6721562842377661</v>
       </c>
     </row>
     <row r="23">
@@ -4080,19 +4080,19 @@
         <v>99921</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>84767</v>
+        <v>81938</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>117689</v>
+        <v>114641</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3999242302375363</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3392704458188492</v>
+        <v>0.3279475489701252</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4710350675630509</v>
+        <v>0.458836009431998</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>122</v>
@@ -4101,19 +4101,19 @@
         <v>136250</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>118017</v>
+        <v>117396</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>155863</v>
+        <v>155008</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3512783292640742</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3042698411311119</v>
+        <v>0.3026684700580382</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4018428021463532</v>
+        <v>0.3996389915190147</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>209</v>
@@ -4122,19 +4122,19 @@
         <v>236172</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>211352</v>
+        <v>209073</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>262562</v>
+        <v>260368</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3703371574688742</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3314181219655086</v>
+        <v>0.3278437157622338</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4117191994061752</v>
+        <v>0.4082792985574925</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>576578</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>529592</v>
+        <v>531616</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>621119</v>
+        <v>620454</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1682566781647132</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1545451281408175</v>
+        <v>0.1551357116521257</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1812543355865568</v>
+        <v>0.1810603239779834</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>691</v>
@@ -4247,19 +4247,19 @@
         <v>745194</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>698521</v>
+        <v>697261</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>794942</v>
+        <v>795830</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2096782586834362</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1965456280369122</v>
+        <v>0.1961909835707255</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2236760078358644</v>
+        <v>0.2239258875936537</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1215</v>
@@ -4268,19 +4268,19 @@
         <v>1321773</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1250743</v>
+        <v>1259635</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1389772</v>
+        <v>1393788</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1893448824549868</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1791697911722974</v>
+        <v>0.1804435993573174</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1990857311681808</v>
+        <v>0.1996610315538545</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>2850201</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2805660</v>
+        <v>2806325</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2897187</v>
+        <v>2895163</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8317433218352869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8187456644134432</v>
+        <v>0.8189396760220166</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8454548718591824</v>
+        <v>0.8448642883478744</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2604</v>
@@ -4318,19 +4318,19 @@
         <v>2808796</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2759048</v>
+        <v>2758160</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2855469</v>
+        <v>2856729</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7903217413165639</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7763239921641353</v>
+        <v>0.7760741124063466</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8034543719630878</v>
+        <v>0.8038090164292747</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5289</v>
@@ -4339,19 +4339,19 @@
         <v>5658996</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5590997</v>
+        <v>5586981</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5730026</v>
+        <v>5721134</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8106551175450133</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8009142688318194</v>
+        <v>0.8003389684461455</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8208302088277027</v>
+        <v>0.8195564006426825</v>
       </c>
     </row>
     <row r="27">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7036</v>
+        <v>8388</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003343799358002251</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01677494988442855</v>
+        <v>0.01999806888206321</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4878</v>
+        <v>4499</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002279163354758952</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01232560186977087</v>
+        <v>0.01136818275013063</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8416</v>
+        <v>8873</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002826962114644154</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01032305605046623</v>
+        <v>0.01088460237162596</v>
       </c>
     </row>
     <row r="5">
@@ -4757,7 +4757,7 @@
         <v>418060</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412427</v>
+        <v>411075</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4766,7 +4766,7 @@
         <v>0.9966562006419978</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9832250501155715</v>
+        <v>0.9800019311179368</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4778,7 +4778,7 @@
         <v>394853</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390877</v>
+        <v>391256</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -4787,7 +4787,7 @@
         <v>0.997720836645241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9876743981302295</v>
+        <v>0.9886318172498694</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>812913</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>806802</v>
+        <v>806345</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -4808,7 +4808,7 @@
         <v>0.9971730378853558</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9896769439495336</v>
+        <v>0.9891153976283724</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -4903,19 +4903,19 @@
         <v>7144</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2654</v>
+        <v>2909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15688</v>
+        <v>15471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0120979931169405</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004494760856798373</v>
+        <v>0.004926512293638764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02656794545627273</v>
+        <v>0.02620004293743517</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6688</v>
+        <v>6604</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003363284225542201</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01186844758893133</v>
+        <v>0.01171817999423905</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -4945,19 +4945,19 @@
         <v>9039</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3911</v>
+        <v>4258</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17142</v>
+        <v>17413</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007832638141146282</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003388561989193609</v>
+        <v>0.003689914586596733</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0148539197635041</v>
+        <v>0.01508879359028116</v>
       </c>
     </row>
     <row r="8">
@@ -4974,19 +4974,19 @@
         <v>583352</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>574808</v>
+        <v>575025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>587842</v>
+        <v>587587</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9879020068830595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9734320545437272</v>
+        <v>0.9737999570625648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9955052391432017</v>
+        <v>0.9950734877063613</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>577</v>
@@ -4995,7 +4995,7 @@
         <v>561649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>556856</v>
+        <v>556940</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -5004,7 +5004,7 @@
         <v>0.9966367157744578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9881315524110686</v>
+        <v>0.9882818200057609</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -5016,19 +5016,19 @@
         <v>1145001</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1136898</v>
+        <v>1136627</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1150129</v>
+        <v>1149782</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9921673618588537</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9851460802364961</v>
+        <v>0.984911206409719</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9966114380108064</v>
+        <v>0.9963100854134033</v>
       </c>
     </row>
     <row r="9">
@@ -5120,19 +5120,19 @@
         <v>23188</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13945</v>
+        <v>14205</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34384</v>
+        <v>33672</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03465525643032932</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0208413466091156</v>
+        <v>0.0212300967607624</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05138917035426576</v>
+        <v>0.05032408641259705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5141,19 +5141,19 @@
         <v>16275</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9592</v>
+        <v>9883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26770</v>
+        <v>26529</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0246067927908122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01450272227349348</v>
+        <v>0.01494326733750972</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04047609708387741</v>
+        <v>0.04011064184966722</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -5162,19 +5162,19 @@
         <v>39462</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28508</v>
+        <v>27828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53797</v>
+        <v>53321</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02966014102429161</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02142700721860853</v>
+        <v>0.02091550199762451</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0404342599037717</v>
+        <v>0.04007663806222413</v>
       </c>
     </row>
     <row r="11">
@@ -5191,19 +5191,19 @@
         <v>645909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>634713</v>
+        <v>635425</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655152</v>
+        <v>654892</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9653447435696707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9486108296457351</v>
+        <v>0.949675913587403</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9791586533908846</v>
+        <v>0.9787699032392383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>649</v>
@@ -5212,19 +5212,19 @@
         <v>645111</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>634616</v>
+        <v>634857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>651794</v>
+        <v>651503</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9753932072091878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9595239029161226</v>
+        <v>0.9598893581503327</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9854972777265064</v>
+        <v>0.9850567326624903</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1265</v>
@@ -5233,19 +5233,19 @@
         <v>1291021</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1276686</v>
+        <v>1277162</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1301975</v>
+        <v>1302655</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9703398589757084</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9595657400962284</v>
+        <v>0.9599233619377759</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9785729927813915</v>
+        <v>0.9790844980023755</v>
       </c>
     </row>
     <row r="12">
@@ -5337,19 +5337,19 @@
         <v>87271</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71047</v>
+        <v>70225</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108032</v>
+        <v>107338</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1350843401236163</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1099710133945378</v>
+        <v>0.1086998919622511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1672195602198456</v>
+        <v>0.1661462329992568</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -5358,19 +5358,19 @@
         <v>58646</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43303</v>
+        <v>44793</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74877</v>
+        <v>74940</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09035312550712617</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06671454314371365</v>
+        <v>0.06901065549777619</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1153591280811378</v>
+        <v>0.1154560788990879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>132</v>
@@ -5379,19 +5379,19 @@
         <v>145917</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>123643</v>
+        <v>123566</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>170219</v>
+        <v>169684</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1126664310072063</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09546770143425828</v>
+        <v>0.09540858581244993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1314309330341201</v>
+        <v>0.1310175940479817</v>
       </c>
     </row>
     <row r="14">
@@ -5408,19 +5408,19 @@
         <v>558777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>538016</v>
+        <v>538710</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>575001</v>
+        <v>575823</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8649156598763836</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8327804397801543</v>
+        <v>0.8338537670007431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8900289866054621</v>
+        <v>0.8913001080377488</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>548</v>
@@ -5429,19 +5429,19 @@
         <v>590431</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>574200</v>
+        <v>574137</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>605774</v>
+        <v>604284</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9096468744928738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8846408719188622</v>
+        <v>0.8845439211009121</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9332854568562863</v>
+        <v>0.9309893445022238</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1052</v>
@@ -5450,19 +5450,19 @@
         <v>1149208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1124906</v>
+        <v>1125441</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1171482</v>
+        <v>1171559</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8873335689927937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8685690669658799</v>
+        <v>0.8689824059520176</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9045322985657416</v>
+        <v>0.90459141418755</v>
       </c>
     </row>
     <row r="15">
@@ -5554,19 +5554,19 @@
         <v>120474</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102258</v>
+        <v>102494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142552</v>
+        <v>141633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2520814790263338</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2139658054969997</v>
+        <v>0.2144586768132916</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2982765254032326</v>
+        <v>0.296353422488414</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>131</v>
@@ -5575,19 +5575,19 @@
         <v>147754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>125670</v>
+        <v>127904</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167356</v>
+        <v>171375</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2973812245749206</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2529330589909622</v>
+        <v>0.257429990081342</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3368345393532251</v>
+        <v>0.3449227353856639</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>237</v>
@@ -5596,19 +5596,19 @@
         <v>268228</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>239075</v>
+        <v>241022</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>297650</v>
+        <v>299343</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2751712362115467</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2452635563500058</v>
+        <v>0.2472610982112029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3053555262561685</v>
+        <v>0.3070918569289672</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>357444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>335366</v>
+        <v>336285</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>375660</v>
+        <v>375424</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7479185209736663</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7017234745967671</v>
+        <v>0.703646577511586</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7860341945030002</v>
+        <v>0.7855413231867084</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>302</v>
@@ -5646,19 +5646,19 @@
         <v>349095</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>329493</v>
+        <v>325474</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>371179</v>
+        <v>368945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7026187754250793</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6631654606467751</v>
+        <v>0.6550772646143361</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7470669410090378</v>
+        <v>0.742570009918658</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>620</v>
@@ -5667,19 +5667,19 @@
         <v>706539</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>677117</v>
+        <v>675424</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>735692</v>
+        <v>733745</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7248287637884534</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6946444737438314</v>
+        <v>0.692908143071033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7547364436499941</v>
+        <v>0.7527389017887971</v>
       </c>
     </row>
     <row r="18">
@@ -5771,19 +5771,19 @@
         <v>136864</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>120560</v>
+        <v>119062</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156704</v>
+        <v>153826</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4093674708934388</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3606022373762</v>
+        <v>0.3561199469431719</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4687116477871049</v>
+        <v>0.4601034549465451</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -5792,19 +5792,19 @@
         <v>174502</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155746</v>
+        <v>155700</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>192951</v>
+        <v>196817</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4619360102817014</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4122858265639925</v>
+        <v>0.4121634584807798</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.510774648951509</v>
+        <v>0.5210066725989233</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>298</v>
@@ -5813,19 +5813,19 @@
         <v>311366</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>285938</v>
+        <v>284765</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>338201</v>
+        <v>340534</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4372548740200354</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4015462569435732</v>
+        <v>0.3998986250850081</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4749397631177416</v>
+        <v>0.4782166563887018</v>
       </c>
     </row>
     <row r="20">
@@ -5842,19 +5842,19 @@
         <v>197466</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>177626</v>
+        <v>180504</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>213770</v>
+        <v>215268</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5906325291065612</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5312883522128951</v>
+        <v>0.5398965450534549</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6393977626238001</v>
+        <v>0.6438800530568281</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>190</v>
@@ -5863,19 +5863,19 @@
         <v>203260</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>184811</v>
+        <v>180945</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>222016</v>
+        <v>222062</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5380639897182986</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4892253510484911</v>
+        <v>0.4789933274010765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5877141734360077</v>
+        <v>0.5878365415192202</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>381</v>
@@ -5884,19 +5884,19 @@
         <v>400726</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>373891</v>
+        <v>371558</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>426154</v>
+        <v>427327</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5627451259799646</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5250602368822584</v>
+        <v>0.5217833436112982</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5984537430564267</v>
+        <v>0.6001013749149919</v>
       </c>
     </row>
     <row r="21">
@@ -5988,19 +5988,19 @@
         <v>137830</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>123435</v>
+        <v>123784</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>152775</v>
+        <v>152225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5363088856259959</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4802972100160999</v>
+        <v>0.4816533601308939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5944590672655706</v>
+        <v>0.592318002364064</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>171</v>
@@ -6009,19 +6009,19 @@
         <v>229430</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>203990</v>
+        <v>205063</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>250208</v>
+        <v>251866</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5733320066803063</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5097592323087131</v>
+        <v>0.5124416042280437</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6252569256466353</v>
+        <v>0.629398901022156</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>332</v>
@@ -6030,19 +6030,19 @@
         <v>367260</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>343226</v>
+        <v>341337</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>393588</v>
+        <v>391848</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5588533915079539</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5222807694585802</v>
+        <v>0.5194062491878213</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5989165912594543</v>
+        <v>0.5962677702995466</v>
       </c>
     </row>
     <row r="23">
@@ -6059,19 +6059,19 @@
         <v>119168</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104223</v>
+        <v>104773</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>133563</v>
+        <v>133214</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4636911143740042</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4055409327344295</v>
+        <v>0.407681997635936</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5197027899839002</v>
+        <v>0.5183466398691061</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>130</v>
@@ -6080,19 +6080,19 @@
         <v>170739</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>149961</v>
+        <v>148303</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>196179</v>
+        <v>195106</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4266679933196938</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3747430743533649</v>
+        <v>0.3706010989778442</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4902407676912869</v>
+        <v>0.4875583957719563</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>271</v>
@@ -6101,19 +6101,19 @@
         <v>289907</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>263579</v>
+        <v>265319</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>313941</v>
+        <v>315830</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4411466084920461</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4010834087405455</v>
+        <v>0.4037322297004534</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4777192305414197</v>
+        <v>0.4805937508121787</v>
       </c>
     </row>
     <row r="24">
@@ -6205,19 +6205,19 @@
         <v>514174</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>477744</v>
+        <v>476066</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>560082</v>
+        <v>559148</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1514792265437319</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1407467184313437</v>
+        <v>0.1402524675108192</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1650040590614794</v>
+        <v>0.1647289656398298</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>539</v>
@@ -6226,19 +6226,19 @@
         <v>629403</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>583726</v>
+        <v>583362</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>684331</v>
+        <v>679265</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1775696854656333</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1646829496265349</v>
+        <v>0.164580379928122</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1930660623732073</v>
+        <v>0.1916367501233719</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1047</v>
@@ -6247,19 +6247,19 @@
         <v>1143577</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1083616</v>
+        <v>1077963</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1207013</v>
+        <v>1202192</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1648068187388403</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1561655219439043</v>
+        <v>0.1553508186577207</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1739489397607601</v>
+        <v>0.1732541285381172</v>
       </c>
     </row>
     <row r="26">
@@ -6276,19 +6276,19 @@
         <v>2880176</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2834268</v>
+        <v>2835202</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2916606</v>
+        <v>2918284</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8485207734562682</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8349959409385206</v>
+        <v>0.8352710343601703</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8592532815686563</v>
+        <v>0.8597475324891812</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2799</v>
@@ -6297,19 +6297,19 @@
         <v>2915139</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2860211</v>
+        <v>2865277</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2960816</v>
+        <v>2961180</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8224303145343667</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8069339376267928</v>
+        <v>0.8083632498766283</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8353170503734652</v>
+        <v>0.8354196200718784</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5522</v>
@@ -6318,19 +6318,19 @@
         <v>5795315</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5731879</v>
+        <v>5736700</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5855276</v>
+        <v>5860929</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8351931812611597</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8260510602392398</v>
+        <v>0.8267458714618828</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8438344780560956</v>
+        <v>0.8446491813422794</v>
       </c>
     </row>
     <row r="27">
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15656</v>
+        <v>14590</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006954294046103704</v>
@@ -6677,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03839307467036599</v>
+        <v>0.0357782914973817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14124</v>
+        <v>12859</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008412420320401267</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03896061169788246</v>
+        <v>0.03547183330044291</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6707,19 +6707,19 @@
         <v>5886</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1040</v>
+        <v>1021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20981</v>
+        <v>17616</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.007640500431402334</v>
+        <v>0.007640500431402332</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001350554687515128</v>
+        <v>0.001325813117994991</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02723785180805478</v>
+        <v>0.02286873785277684</v>
       </c>
     </row>
     <row r="5">
@@ -6736,7 +6736,7 @@
         <v>404957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>392137</v>
+        <v>393203</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6745,7 +6745,7 @@
         <v>0.9930457059538964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9616069253296335</v>
+        <v>0.9642217085026179</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6757,7 +6757,7 @@
         <v>359462</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>348388</v>
+        <v>349653</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>362512</v>
@@ -6766,7 +6766,7 @@
         <v>0.9915875796795988</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9610393883021179</v>
+        <v>0.9645281666995569</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -6778,19 +6778,19 @@
         <v>764419</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>749324</v>
+        <v>752689</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>769265</v>
+        <v>769284</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9923594995685978</v>
+        <v>0.9923594995685976</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9727621481919441</v>
+        <v>0.9771312621472231</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9986494453124849</v>
+        <v>0.9986741868820052</v>
       </c>
     </row>
     <row r="6">
@@ -6882,19 +6882,19 @@
         <v>9901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3543</v>
+        <v>3328</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21674</v>
+        <v>22027</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02076159618920648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007428492435327384</v>
+        <v>0.006977830302502235</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04544946980693285</v>
+        <v>0.04618791655632829</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -6903,19 +6903,19 @@
         <v>4573</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1792</v>
+        <v>1499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9738</v>
+        <v>10988</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009125583133535604</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003575949234015797</v>
+        <v>0.002991495942544899</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01943446834362341</v>
+        <v>0.0219287743894047</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -6924,19 +6924,19 @@
         <v>14474</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7467</v>
+        <v>7123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27525</v>
+        <v>27105</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01479966548131584</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007634675661372398</v>
+        <v>0.007283014229090279</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02814495945214569</v>
+        <v>0.02771522940583071</v>
       </c>
     </row>
     <row r="8">
@@ -6953,19 +6953,19 @@
         <v>466989</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455216</v>
+        <v>454863</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473347</v>
+        <v>473562</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9792384038107935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9545505301930672</v>
+        <v>0.9538120834436734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9925715075646727</v>
+        <v>0.9930221696974978</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>455</v>
@@ -6974,19 +6974,19 @@
         <v>496510</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>491345</v>
+        <v>490095</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>499291</v>
+        <v>499584</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9908744168664644</v>
+        <v>0.9908744168664643</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9805655316563767</v>
+        <v>0.9780712256105951</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9964240507659843</v>
+        <v>0.9970085040574551</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>751</v>
@@ -6995,19 +6995,19 @@
         <v>963499</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>950448</v>
+        <v>950868</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>970506</v>
+        <v>970850</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9852003345186841</v>
+        <v>0.9852003345186843</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9718550405478557</v>
+        <v>0.9722847705941694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9923653243386279</v>
+        <v>0.9927169857709098</v>
       </c>
     </row>
     <row r="9">
@@ -7099,19 +7099,19 @@
         <v>23455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14703</v>
+        <v>14861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36035</v>
+        <v>34902</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03792247729229396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02377188800286045</v>
+        <v>0.02402839289058275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05826308157127903</v>
+        <v>0.05643046390703308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -7120,19 +7120,19 @@
         <v>14479</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8926</v>
+        <v>9425</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21282</v>
+        <v>21395</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02329723053566833</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01436244594706592</v>
+        <v>0.01516486425586416</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0342437848412664</v>
+        <v>0.0344258410133902</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -7141,19 +7141,19 @@
         <v>37934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28120</v>
+        <v>27833</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>51928</v>
+        <v>51569</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03059218014706026</v>
+        <v>0.03059218014706025</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02267744439388425</v>
+        <v>0.02244662355707227</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04187828094177807</v>
+        <v>0.04158837085047389</v>
       </c>
     </row>
     <row r="11">
@@ -7170,19 +7170,19 @@
         <v>595036</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>582456</v>
+        <v>583589</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>603788</v>
+        <v>603630</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9620775227077062</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9417369184287208</v>
+        <v>0.9435695360929681</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9762281119971395</v>
+        <v>0.9759716071094177</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>823</v>
@@ -7191,19 +7191,19 @@
         <v>607009</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>600206</v>
+        <v>600093</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>612562</v>
+        <v>612063</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9767027694643315</v>
+        <v>0.9767027694643318</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9657562151587334</v>
+        <v>0.9655741589866099</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.985637554052934</v>
+        <v>0.9848351357441358</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1347</v>
@@ -7212,19 +7212,19 @@
         <v>1202045</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1188051</v>
+        <v>1188410</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1211859</v>
+        <v>1212146</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9694078198529398</v>
+        <v>0.9694078198529396</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9581217190582216</v>
+        <v>0.9584116291495263</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9773225556061158</v>
+        <v>0.9775533764429277</v>
       </c>
     </row>
     <row r="12">
@@ -7316,19 +7316,19 @@
         <v>112212</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93873</v>
+        <v>93369</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133578</v>
+        <v>134888</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1601613700764014</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1339859248820956</v>
+        <v>0.1332671341587084</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1906576280034548</v>
+        <v>0.1925274175928384</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>144</v>
@@ -7337,19 +7337,19 @@
         <v>93512</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80710</v>
+        <v>80045</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109150</v>
+        <v>107816</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1269691478049407</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.10958628124196</v>
+        <v>0.108683717376307</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.148201929607709</v>
+        <v>0.1463903074043098</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>255</v>
@@ -7358,19 +7358,19 @@
         <v>205724</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>182147</v>
+        <v>183431</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>228574</v>
+        <v>231931</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1431509331272555</v>
+        <v>0.1431509331272556</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1267451081414963</v>
+        <v>0.1276388163036279</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1590510971066641</v>
+        <v>0.1613865944742481</v>
       </c>
     </row>
     <row r="14">
@@ -7387,19 +7387,19 @@
         <v>588405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>567039</v>
+        <v>565729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>606744</v>
+        <v>607248</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8398386299235987</v>
+        <v>0.8398386299235986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.809342371996545</v>
+        <v>0.8074725824071618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8660140751179044</v>
+        <v>0.8667328658412918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>996</v>
@@ -7408,19 +7408,19 @@
         <v>642983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>627345</v>
+        <v>628679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>655785</v>
+        <v>656450</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8730308521950594</v>
+        <v>0.8730308521950592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8517980703922911</v>
+        <v>0.8536096925956902</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8904137187580399</v>
+        <v>0.8913162826236932</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1550</v>
@@ -7429,19 +7429,19 @@
         <v>1231388</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1208538</v>
+        <v>1205181</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1254965</v>
+        <v>1253681</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8568490668727444</v>
+        <v>0.8568490668727445</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8409489028933359</v>
+        <v>0.8386134055257521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8732548918585036</v>
+        <v>0.8723611836963723</v>
       </c>
     </row>
     <row r="15">
@@ -7533,19 +7533,19 @@
         <v>174194</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>155582</v>
+        <v>151967</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195742</v>
+        <v>195454</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2863342084013766</v>
+        <v>0.2863342084013765</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2557411498151216</v>
+        <v>0.2497977779694509</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3217543338271541</v>
+        <v>0.3212811505551988</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>273</v>
@@ -7554,19 +7554,19 @@
         <v>162260</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>146900</v>
+        <v>146620</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>179478</v>
+        <v>179079</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2677164155569756</v>
+        <v>0.2677164155569755</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2423733538964494</v>
+        <v>0.2419110510363242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2961237480328701</v>
+        <v>0.29546594641916</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>471</v>
@@ -7575,19 +7575,19 @@
         <v>336454</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>310724</v>
+        <v>310636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>364184</v>
+        <v>363032</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2770427019591601</v>
+        <v>0.2770427019591602</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2558556008140192</v>
+        <v>0.2557833012571306</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2998760633962168</v>
+        <v>0.2989270146755053</v>
       </c>
     </row>
     <row r="17">
@@ -7604,19 +7604,19 @@
         <v>434165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>412617</v>
+        <v>412905</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>452777</v>
+        <v>456392</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7136657915986238</v>
+        <v>0.7136657915986236</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6782456661728461</v>
+        <v>0.6787188494448013</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7442588501848787</v>
+        <v>0.7502022220305492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>725</v>
@@ -7625,19 +7625,19 @@
         <v>443830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>426612</v>
+        <v>427011</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>459190</v>
+        <v>459470</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7322835844430243</v>
+        <v>0.7322835844430242</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7038762519671299</v>
+        <v>0.7045340535808401</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7576266461035507</v>
+        <v>0.7580889489636757</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1189</v>
@@ -7646,19 +7646,19 @@
         <v>877995</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>850265</v>
+        <v>851417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>903725</v>
+        <v>903813</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7229572980408397</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.700123936603783</v>
+        <v>0.7010729853244948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7441443991859805</v>
+        <v>0.7442166987428694</v>
       </c>
     </row>
     <row r="18">
@@ -7750,19 +7750,19 @@
         <v>184926</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>167647</v>
+        <v>169827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>202316</v>
+        <v>202952</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4570049719645546</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4143034425245473</v>
+        <v>0.4196908275412774</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4999822694129121</v>
+        <v>0.5015531882135348</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>389</v>
@@ -7771,19 +7771,19 @@
         <v>205743</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>190103</v>
+        <v>190426</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>220647</v>
+        <v>220061</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4697846848956597</v>
+        <v>0.4697846848956596</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4340717298618952</v>
+        <v>0.4348092850134125</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.503816440282129</v>
+        <v>0.5024774000143585</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>654</v>
@@ -7792,19 +7792,19 @@
         <v>390669</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>365727</v>
+        <v>368429</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>411740</v>
+        <v>413371</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.4636473934331774</v>
+        <v>0.4636473934331773</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.434045736821097</v>
+        <v>0.4372533676931999</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4886549592520928</v>
+        <v>0.4905902344499775</v>
       </c>
     </row>
     <row r="20">
@@ -7821,19 +7821,19 @@
         <v>219721</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>202331</v>
+        <v>201695</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237000</v>
+        <v>234820</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5429950280354454</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5000177305870876</v>
+        <v>0.4984468117864653</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5856965574754527</v>
+        <v>0.5803091724587226</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>436</v>
@@ -7842,19 +7842,19 @@
         <v>232209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>217305</v>
+        <v>217891</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>247849</v>
+        <v>247526</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5302153151043404</v>
+        <v>0.5302153151043403</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4961835597178711</v>
+        <v>0.4975225999856415</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5659282701381046</v>
+        <v>0.5651907149865875</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>738</v>
@@ -7863,19 +7863,19 @@
         <v>451930</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>430859</v>
+        <v>429228</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>476872</v>
+        <v>474170</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5363526065668226</v>
+        <v>0.5363526065668225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.511345040747907</v>
+        <v>0.5094097655500224</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5659542631789026</v>
+        <v>0.5627466323068002</v>
       </c>
     </row>
     <row r="21">
@@ -7967,19 +7967,19 @@
         <v>167746</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>152067</v>
+        <v>153875</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>181340</v>
+        <v>183347</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.540771332281862</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4902268734921931</v>
+        <v>0.4960555785279251</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5845945064921882</v>
+        <v>0.5910657644841041</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>584</v>
@@ -7988,19 +7988,19 @@
         <v>297491</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>280948</v>
+        <v>280078</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>312069</v>
+        <v>311880</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6416438027990004</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6059636153717319</v>
+        <v>0.6040865014982238</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6730860235071953</v>
+        <v>0.6726788845988554</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>847</v>
@@ -8009,19 +8009,19 @@
         <v>465238</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>442472</v>
+        <v>444153</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>485863</v>
+        <v>488239</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6012083601878438</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5717893865446088</v>
+        <v>0.573961211583751</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6278618515932871</v>
+        <v>0.6309321603900467</v>
       </c>
     </row>
     <row r="23">
@@ -8038,19 +8038,19 @@
         <v>142452</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>128858</v>
+        <v>126851</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>158131</v>
+        <v>156323</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4592286677181379</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4154054935078115</v>
+        <v>0.4089342355158961</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5097731265078067</v>
+        <v>0.5039444214720749</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>295</v>
@@ -8059,19 +8059,19 @@
         <v>166148</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>151570</v>
+        <v>151759</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>182691</v>
+        <v>183561</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3583561972009995</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3269139764928047</v>
+        <v>0.3273211154011448</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3940363846282684</v>
+        <v>0.3959134985017764</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>490</v>
@@ -8080,19 +8080,19 @@
         <v>308600</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>287975</v>
+        <v>285599</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>331366</v>
+        <v>329685</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3987916398121561</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3721381484067131</v>
+        <v>0.3690678396099533</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4282106134553912</v>
+        <v>0.426038788416249</v>
       </c>
     </row>
     <row r="24">
@@ -8184,19 +8184,19 @@
         <v>675270</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>634555</v>
+        <v>632248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>724610</v>
+        <v>722844</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1914574042116959</v>
+        <v>0.1914574042116958</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1799135786488717</v>
+        <v>0.1792595713738267</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2054466332475294</v>
+        <v>0.2049459219049194</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1419</v>
@@ -8205,19 +8205,19 @@
         <v>781108</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>743658</v>
+        <v>747032</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>821606</v>
+        <v>824023</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2094539160882854</v>
+        <v>0.2094539160882853</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1994117955380253</v>
+        <v>0.2003165303538612</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2203134357291446</v>
+        <v>0.2209614251038768</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2283</v>
@@ -8226,19 +8226,19 @@
         <v>1456378</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1393922</v>
+        <v>1399565</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1511140</v>
+        <v>1516600</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2007064805581659</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1920994022419835</v>
+        <v>0.1928770684469373</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2082534406605682</v>
+        <v>0.2090058879738482</v>
       </c>
     </row>
     <row r="26">
@@ -8255,19 +8255,19 @@
         <v>2851727</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2802387</v>
+        <v>2804153</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2892442</v>
+        <v>2894749</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8085425957883042</v>
+        <v>0.8085425957883041</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7945533667524706</v>
+        <v>0.7950540780950809</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8200864213511282</v>
+        <v>0.8207404286261732</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3935</v>
@@ -8276,19 +8276,19 @@
         <v>2948152</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2907654</v>
+        <v>2905237</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2985602</v>
+        <v>2982228</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7905460839117147</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7796865642708553</v>
+        <v>0.7790385748961233</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8005882044619747</v>
+        <v>0.7996834696461388</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6441</v>
@@ -8297,19 +8297,19 @@
         <v>5799878</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5745116</v>
+        <v>5739656</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5862334</v>
+        <v>5856691</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7992935194418341</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7917465593394315</v>
+        <v>0.7909941120261519</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8079005977580165</v>
+        <v>0.8071229315530626</v>
       </c>
     </row>
     <row r="27">
